--- a/BEMFSimulation/ExcelResults/PhaseVoltage4500.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage4500.xlsx
@@ -408,13 +408,13 @@
         <v>3.703703703703704e-05</v>
       </c>
       <c r="B2">
-        <v>3.304179762213977</v>
+        <v>4.622019099350256</v>
       </c>
       <c r="C2">
-        <v>295.9249675129215</v>
+        <v>299.9974410705871</v>
       </c>
       <c r="D2">
-        <v>-311.6369259945278</v>
+        <v>-319.1150267196804</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>7.407407407407407e-05</v>
       </c>
       <c r="B3">
-        <v>18.77955864008501</v>
+        <v>18.86582216597037</v>
       </c>
       <c r="C3">
-        <v>282.3597190546728</v>
+        <v>289.8304507385732</v>
       </c>
       <c r="D3">
-        <v>-307.9589787821406</v>
+        <v>-319.2733267039847</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0001111111111111111</v>
       </c>
       <c r="B4">
-        <v>56.09564261261716</v>
+        <v>55.81711194332942</v>
       </c>
       <c r="C4">
-        <v>259.2833699556926</v>
+        <v>271.3823190653449</v>
       </c>
       <c r="D4">
-        <v>-295.4153445699719</v>
+        <v>-306.3075402778096</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001481481481481481</v>
       </c>
       <c r="B5">
-        <v>100.9250234129031</v>
+        <v>101.7243658862011</v>
       </c>
       <c r="C5">
-        <v>224.7906257550792</v>
+        <v>223.2059044541528</v>
       </c>
       <c r="D5">
-        <v>-285.4737033336158</v>
+        <v>-288.3157970652488</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0001851851851851852</v>
       </c>
       <c r="B6">
-        <v>127.2407531621691</v>
+        <v>132.8887413482673</v>
       </c>
       <c r="C6">
-        <v>186.9418329994841</v>
+        <v>190.4629912848416</v>
       </c>
       <c r="D6">
-        <v>-293.4318494090056</v>
+        <v>-304.8704180325044</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0002222222222222222</v>
       </c>
       <c r="B7">
-        <v>137.6768475696842</v>
+        <v>141.1544146297803</v>
       </c>
       <c r="C7">
-        <v>164.2991640528859</v>
+        <v>170.1958014474172</v>
       </c>
       <c r="D7">
-        <v>-300.8307212886499</v>
+        <v>-310.8239032426286</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0002592592592592593</v>
       </c>
       <c r="B8">
-        <v>149.2546623988965</v>
+        <v>149.41288889444</v>
       </c>
       <c r="C8">
-        <v>156.5108006155895</v>
+        <v>160.2751347145079</v>
       </c>
       <c r="D8">
-        <v>-310.5724305171553</v>
+        <v>-313.8752738507476</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0002962962962962963</v>
       </c>
       <c r="B9">
-        <v>156.636687192433</v>
+        <v>159.3012838869163</v>
       </c>
       <c r="C9">
-        <v>149.7415997531757</v>
+        <v>150.9630829297524</v>
       </c>
       <c r="D9">
-        <v>-311.6664619388518</v>
+        <v>-314.4884414416355</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B10">
-        <v>164.1155097550412</v>
+        <v>169.5046922853104</v>
       </c>
       <c r="C10">
-        <v>137.8476682469422</v>
+        <v>140.0223351481582</v>
       </c>
       <c r="D10">
-        <v>-301.8598717834787</v>
+        <v>-308.5399600253855</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0003703703703703704</v>
       </c>
       <c r="B11">
-        <v>186.5521969961828</v>
+        <v>192.9310754204641</v>
       </c>
       <c r="C11">
-        <v>127.6338259830592</v>
+        <v>133.7426668841112</v>
       </c>
       <c r="D11">
-        <v>-294.5695477446026</v>
+        <v>-309.5720861231059</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0004074074074074074</v>
       </c>
       <c r="B12">
-        <v>224.6490223508992</v>
+        <v>226.7931185099086</v>
       </c>
       <c r="C12">
-        <v>101.3116011177221</v>
+        <v>99.90958303462646</v>
       </c>
       <c r="D12">
-        <v>-286.3802493503871</v>
+        <v>-291.7988903530753</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0004444444444444444</v>
       </c>
       <c r="B13">
-        <v>258.7695734640633</v>
+        <v>265.5757465855864</v>
       </c>
       <c r="C13">
-        <v>56.8561542756853</v>
+        <v>55.29840100608467</v>
       </c>
       <c r="D13">
-        <v>-295.7382703964369</v>
+        <v>-302.1565429068125</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0004814814814814814</v>
       </c>
       <c r="B14">
-        <v>282.2160987465089</v>
+        <v>293.1581797504199</v>
       </c>
       <c r="C14">
-        <v>19.28255052433314</v>
+        <v>19.01426252579434</v>
       </c>
       <c r="D14">
-        <v>-307.4412576618802</v>
+        <v>-318.9208509718328</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0005185185185185185</v>
       </c>
       <c r="B15">
-        <v>295.3924648902974</v>
+        <v>298.3700561519232</v>
       </c>
       <c r="C15">
-        <v>3.603173572325286</v>
+        <v>5.041018536870515</v>
       </c>
       <c r="D15">
-        <v>-310.3839990823009</v>
+        <v>-316.8055416137312</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0005555555555555556</v>
       </c>
       <c r="B16">
-        <v>310.7740709569816</v>
+        <v>314.7222727571201</v>
       </c>
       <c r="C16">
-        <v>-0.009654010794279966</v>
+        <v>0.08732207382115831</v>
       </c>
       <c r="D16">
-        <v>-310.2969984737891</v>
+        <v>-315.7960453462386</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0005925925925925926</v>
       </c>
       <c r="B17">
-        <v>310.8575078064212</v>
+        <v>317.4029193456684</v>
       </c>
       <c r="C17">
-        <v>-3.347176160319626</v>
+        <v>-4.430569989626668</v>
       </c>
       <c r="D17">
-        <v>-296.0576841678923</v>
+        <v>-300.0533354713277</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0006296296296296296</v>
       </c>
       <c r="B18">
-        <v>307.2601370127392</v>
+        <v>319.7578425608775</v>
       </c>
       <c r="C18">
-        <v>-18.56852643201412</v>
+        <v>-18.38929071376096</v>
       </c>
       <c r="D18">
-        <v>-282.3153871358061</v>
+        <v>-290.4994888528051</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B19">
-        <v>296.1948695077218</v>
+        <v>308.0551879492254</v>
       </c>
       <c r="C19">
-        <v>-55.8482188150499</v>
+        <v>-55.52819528070596</v>
       </c>
       <c r="D19">
-        <v>-259.7608281649444</v>
+        <v>-271.2592855506581</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0007037037037037037</v>
       </c>
       <c r="B20">
-        <v>286.5216313665343</v>
+        <v>290.6005148533293</v>
       </c>
       <c r="C20">
-        <v>-100.9776698590958</v>
+        <v>-100.7233003094346</v>
       </c>
       <c r="D20">
-        <v>-224.9581450774736</v>
+        <v>-223.4809786128406</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0007407407407407407</v>
       </c>
       <c r="B21">
-        <v>294.2379308565577</v>
+        <v>306.6632933870093</v>
       </c>
       <c r="C21">
-        <v>-127.4545022166346</v>
+        <v>-132.6620511790488</v>
       </c>
       <c r="D21">
-        <v>-186.9622269479326</v>
+        <v>-191.3385497725896</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0007777777777777777</v>
       </c>
       <c r="B22">
-        <v>301.4239413735154</v>
+        <v>310.6942321688018</v>
       </c>
       <c r="C22">
-        <v>-137.6452824125326</v>
+        <v>-141.347350644608</v>
       </c>
       <c r="D22">
-        <v>-164.579419559362</v>
+        <v>-170.9619501238182</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0008148148148148148</v>
       </c>
       <c r="B23">
-        <v>310.6997454935084</v>
+        <v>313.8844150425156</v>
       </c>
       <c r="C23">
-        <v>-149.2456036387046</v>
+        <v>-150.3033934775975</v>
       </c>
       <c r="D23">
-        <v>-156.7211764529061</v>
+        <v>-160.1989926576134</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0008518518518518518</v>
       </c>
       <c r="B24">
-        <v>311.3305450183299</v>
+        <v>315.8167658186102</v>
       </c>
       <c r="C24">
-        <v>-156.6663638558049</v>
+        <v>-160.1996239511552</v>
       </c>
       <c r="D24">
-        <v>-149.6442848283942</v>
+        <v>-150.6469277067929</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.0008888888888888888</v>
       </c>
       <c r="B25">
-        <v>302.2499258092279</v>
+        <v>309.6870535062239</v>
       </c>
       <c r="C25">
-        <v>-164.3484390243221</v>
+        <v>-169.4856997814901</v>
       </c>
       <c r="D25">
-        <v>-137.7100891018987</v>
+        <v>-140.1207261755868</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.0009259259259259259</v>
       </c>
       <c r="B26">
-        <v>295.3592323086015</v>
+        <v>309.2497980260432</v>
       </c>
       <c r="C26">
-        <v>-186.7290592743829</v>
+        <v>-191.9562941232274</v>
       </c>
       <c r="D26">
-        <v>-127.707598765348</v>
+        <v>-134.1696231833459</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.0009629629629629629</v>
       </c>
       <c r="B27">
-        <v>287.4219154850126</v>
+        <v>290.34098892785</v>
       </c>
       <c r="C27">
-        <v>-224.7372663381684</v>
+        <v>-226.059154514235</v>
       </c>
       <c r="D27">
-        <v>-101.4394153722364</v>
+        <v>-101.1794971086376</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001</v>
       </c>
       <c r="B28">
-        <v>297.1299571841176</v>
+        <v>302.3053396546366</v>
       </c>
       <c r="C28">
-        <v>-259.3242292811757</v>
+        <v>-266.299073722595</v>
       </c>
       <c r="D28">
-        <v>-56.76913755995209</v>
+        <v>-55.656149139909</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001037037037037037</v>
       </c>
       <c r="B29">
-        <v>308.0617967248542</v>
+        <v>320.7338703965926</v>
       </c>
       <c r="C29">
-        <v>-282.679811644955</v>
+        <v>-293.8177552880536</v>
       </c>
       <c r="D29">
-        <v>-19.07582968721625</v>
+        <v>-18.55058178144589</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001074074074074074</v>
       </c>
       <c r="B30">
-        <v>310.2221579195291</v>
+        <v>318.4977831314851</v>
       </c>
       <c r="C30">
-        <v>-295.5506909229518</v>
+        <v>-298.790550636741</v>
       </c>
       <c r="D30">
-        <v>-3.412241096302643</v>
+        <v>-4.591921779271563</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.001111111111111111</v>
       </c>
       <c r="B31">
-        <v>310.0184950535304</v>
+        <v>314.7580789837201</v>
       </c>
       <c r="C31">
-        <v>-310.5654824607495</v>
+        <v>-314.4355407729108</v>
       </c>
       <c r="D31">
-        <v>0.1117671715078483</v>
+        <v>0.09215424063534206</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001148148148148148</v>
       </c>
       <c r="B32">
-        <v>295.6233736257814</v>
+        <v>296.8953689954268</v>
       </c>
       <c r="C32">
-        <v>-310.8300190435206</v>
+        <v>-316.7345784713761</v>
       </c>
       <c r="D32">
-        <v>3.384419117262033</v>
+        <v>4.21233947959128</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001185185185185185</v>
       </c>
       <c r="B33">
-        <v>281.8434252081291</v>
+        <v>289.05017009011</v>
       </c>
       <c r="C33">
-        <v>-307.3970372209423</v>
+        <v>-319.4764892306141</v>
       </c>
       <c r="D33">
-        <v>18.60908225355243</v>
+        <v>18.03344263708325</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001222222222222222</v>
       </c>
       <c r="B34">
-        <v>259.3661261412756</v>
+        <v>272.2188479235035</v>
       </c>
       <c r="C34">
-        <v>-296.1321001103518</v>
+        <v>-307.5515240600112</v>
       </c>
       <c r="D34">
-        <v>55.73567600634433</v>
+        <v>55.49929898836328</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.001259259259259259</v>
       </c>
       <c r="B35">
-        <v>224.8572452510818</v>
+        <v>223.8688276735441</v>
       </c>
       <c r="C35">
-        <v>-286.2939818069559</v>
+        <v>-289.0390477533849</v>
       </c>
       <c r="D35">
-        <v>100.8387118852296</v>
+        <v>100.8580100624046</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001296296296296296</v>
       </c>
       <c r="B36">
-        <v>187.0861437221881</v>
+        <v>190.2923114867748</v>
       </c>
       <c r="C36">
-        <v>-293.9914006479873</v>
+        <v>-305.4463776437391</v>
       </c>
       <c r="D36">
-        <v>127.3285753930155</v>
+        <v>132.5098256218018</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B37">
-        <v>164.5656208422468</v>
+        <v>170.0742459091847</v>
       </c>
       <c r="C37">
-        <v>-301.6195318110539</v>
+        <v>-310.9636129604782</v>
       </c>
       <c r="D37">
-        <v>137.7388303001229</v>
+        <v>141.49138513597</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.00137037037037037</v>
       </c>
       <c r="B38">
-        <v>156.6284162490298</v>
+        <v>160.2723206092859</v>
       </c>
       <c r="C38">
-        <v>-310.9232292785694</v>
+        <v>-313.799155284044</v>
       </c>
       <c r="D38">
-        <v>149.3331474568562</v>
+        <v>150.0180441826896</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001407407407407407</v>
       </c>
       <c r="B39">
-        <v>149.7533691975023</v>
+        <v>151.3463681139785</v>
       </c>
       <c r="C39">
-        <v>-311.8233949779458</v>
+        <v>-315.1996671373936</v>
       </c>
       <c r="D39">
-        <v>156.968160765458</v>
+        <v>159.9851989582349</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001444444444444444</v>
       </c>
       <c r="B40">
-        <v>137.6827674051979</v>
+        <v>140.3296122516912</v>
       </c>
       <c r="C40">
-        <v>-301.7076029792365</v>
+        <v>-309.1511024033363</v>
       </c>
       <c r="D40">
-        <v>164.2344577003229</v>
+        <v>169.4525386039574</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001481481481481481</v>
       </c>
       <c r="B41">
-        <v>127.677781329525</v>
+        <v>134.3013009203626</v>
       </c>
       <c r="C41">
-        <v>-294.7190205664629</v>
+        <v>-310.5085038094394</v>
       </c>
       <c r="D41">
-        <v>186.609252071306</v>
+        <v>192.8421223250727</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001518518518518518</v>
       </c>
       <c r="B42">
-        <v>101.5123050914448</v>
+        <v>100.3987009155133</v>
       </c>
       <c r="C42">
-        <v>-286.7470963246024</v>
+        <v>-291.3693210459092</v>
       </c>
       <c r="D42">
-        <v>224.7053178043869</v>
+        <v>226.911005863981</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.001555555555555555</v>
       </c>
       <c r="B43">
-        <v>57.02838669610644</v>
+        <v>55.3004937761132</v>
       </c>
       <c r="C43">
-        <v>-296.0198258789078</v>
+        <v>-302.7699365611766</v>
       </c>
       <c r="D43">
-        <v>259.3426717117278</v>
+        <v>266.7089514912825</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001592592592592592</v>
       </c>
       <c r="B44">
-        <v>19.34701753166432</v>
+        <v>18.50679104038883</v>
       </c>
       <c r="C44">
-        <v>-307.6821090448331</v>
+        <v>-320.5997125512047</v>
       </c>
       <c r="D44">
-        <v>282.9976517663483</v>
+        <v>293.6205451812219</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.00162962962962963</v>
       </c>
       <c r="B45">
-        <v>3.612267333405944</v>
+        <v>4.656546605538159</v>
       </c>
       <c r="C45">
-        <v>-310.7130285064194</v>
+        <v>-316.930938198257</v>
       </c>
       <c r="D45">
-        <v>296.2813849096935</v>
+        <v>297.1231965700993</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B46">
-        <v>0.04366339965439225</v>
+        <v>0.3048980598940182</v>
       </c>
       <c r="C46">
-        <v>-310.7743324634889</v>
+        <v>-316.4980321501252</v>
       </c>
       <c r="D46">
-        <v>311.6193279612106</v>
+        <v>316.581483629043</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001703703703703704</v>
       </c>
       <c r="B47">
-        <v>-3.315368764670035</v>
+        <v>-4.634517314259512</v>
       </c>
       <c r="C47">
-        <v>-295.8965767458062</v>
+        <v>-299.9775426274135</v>
       </c>
       <c r="D47">
-        <v>311.6293174574313</v>
+        <v>319.1151806401375</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001740740740740741</v>
       </c>
       <c r="B48">
-        <v>-18.81527703104397</v>
+        <v>-18.90049951151794</v>
       </c>
       <c r="C48">
-        <v>-282.3444927459193</v>
+        <v>-289.8292883463236</v>
       </c>
       <c r="D48">
-        <v>307.9534088512052</v>
+        <v>319.2739979198133</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001777777777777778</v>
       </c>
       <c r="B49">
-        <v>-56.16559741785368</v>
+        <v>-55.88655742393735</v>
       </c>
       <c r="C49">
-        <v>-259.2362996269437</v>
+        <v>-271.3119942616214</v>
       </c>
       <c r="D49">
-        <v>295.3905373577515</v>
+        <v>306.2674788455947</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.001814814814814815</v>
       </c>
       <c r="B50">
-        <v>-100.9758736847633</v>
+        <v>-101.7812584734174</v>
       </c>
       <c r="C50">
-        <v>-224.7353350129677</v>
+        <v>-223.1511766848364</v>
       </c>
       <c r="D50">
-        <v>285.4735966100891</v>
+        <v>288.3210052133319</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.001851851851851852</v>
       </c>
       <c r="B51">
-        <v>-127.2661131040403</v>
+        <v>-132.9183695097453</v>
       </c>
       <c r="C51">
-        <v>-186.8963850026272</v>
+        <v>-190.4236948887638</v>
       </c>
       <c r="D51">
-        <v>293.4478493681975</v>
+        <v>304.8959897062023</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.001888888888888889</v>
       </c>
       <c r="B52">
-        <v>-137.6887480129919</v>
+        <v>-141.1562958259748</v>
       </c>
       <c r="C52">
-        <v>-164.278212485137</v>
+        <v>-170.1743008043556</v>
       </c>
       <c r="D52">
-        <v>300.8398115710283</v>
+        <v>310.8189528578848</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.001925925925925926</v>
       </c>
       <c r="B53">
-        <v>-149.2719259124405</v>
+        <v>-149.4321688817411</v>
       </c>
       <c r="C53">
-        <v>-156.5055992111963</v>
+        <v>-160.2688137676632</v>
       </c>
       <c r="D53">
-        <v>310.5865273156144</v>
+        <v>313.8887564677922</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.001962962962962963</v>
       </c>
       <c r="B54">
-        <v>-156.6427655088854</v>
+        <v>-159.3109608611363</v>
       </c>
       <c r="C54">
-        <v>-149.7256387258501</v>
+        <v>-150.9434662543346</v>
       </c>
       <c r="D54">
-        <v>311.6553646836065</v>
+        <v>314.4782676451029</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.002</v>
       </c>
       <c r="B55">
-        <v>-164.136047750549</v>
+        <v>-169.5275514336652</v>
       </c>
       <c r="C55">
-        <v>-137.8348856033306</v>
+        <v>-140.0087339090895</v>
       </c>
       <c r="D55">
-        <v>301.8497299604805</v>
+        <v>308.53404924924</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.002037037037037037</v>
       </c>
       <c r="B56">
-        <v>-186.5961980008562</v>
+        <v>-192.9745687093995</v>
       </c>
       <c r="C56">
-        <v>-127.6082660868511</v>
+        <v>-133.7216478308764</v>
       </c>
       <c r="D56">
-        <v>294.5525330748019</v>
+        <v>309.5635374689402</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.002074074074074075</v>
       </c>
       <c r="B57">
-        <v>-224.7053920549372</v>
+        <v>-226.8421959594523</v>
       </c>
       <c r="C57">
-        <v>-101.2615105071725</v>
+        <v>-99.84899091307503</v>
       </c>
       <c r="D57">
-        <v>286.3807631972164</v>
+        <v>291.7813420887995</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.002111111111111112</v>
       </c>
       <c r="B58">
-        <v>-258.8149479193411</v>
+        <v>-265.633593174636</v>
       </c>
       <c r="C58">
-        <v>-56.78580829057303</v>
+        <v>-55.2322206322723</v>
       </c>
       <c r="D58">
-        <v>295.7604152704224</v>
+        <v>302.1909655014612</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.002148148148148149</v>
       </c>
       <c r="B59">
-        <v>-282.2356272164531</v>
+        <v>-293.1722902199643</v>
       </c>
       <c r="C59">
-        <v>-19.24695580313487</v>
+        <v>-18.98011843651778</v>
       </c>
       <c r="D59">
-        <v>307.450189106136</v>
+        <v>318.9282924163265</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.002185185185185186</v>
       </c>
       <c r="B60">
-        <v>-295.4161233401533</v>
+        <v>-298.388339810397</v>
       </c>
       <c r="C60">
-        <v>-3.591275109046138</v>
+        <v>-5.029006053534971</v>
       </c>
       <c r="D60">
-        <v>310.3858634708919</v>
+        <v>316.8028759116384</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.002222222222222224</v>
       </c>
       <c r="B61">
-        <v>-310.7860780350235</v>
+        <v>-314.7388423897769</v>
       </c>
       <c r="C61">
-        <v>0.01076489247117673</v>
+        <v>-0.08420558333985251</v>
       </c>
       <c r="D61">
-        <v>310.2878545441923</v>
+        <v>315.7821162972828</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.002259259259259261</v>
       </c>
       <c r="B62">
-        <v>-310.8529311209608</v>
+        <v>-317.4030566807708</v>
       </c>
       <c r="C62">
-        <v>3.358532824938087</v>
+        <v>4.441680335390691</v>
       </c>
       <c r="D62">
-        <v>296.0329057862745</v>
+        <v>300.0322250116651</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.002296296296296298</v>
       </c>
       <c r="B63">
-        <v>-307.2524900119272</v>
+        <v>-319.7632721941679</v>
       </c>
       <c r="C63">
-        <v>18.60382642181435</v>
+        <v>18.42426994825987</v>
       </c>
       <c r="D63">
-        <v>282.2975110962722</v>
+        <v>290.5001920365086</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.002333333333333335</v>
       </c>
       <c r="B64">
-        <v>-296.173346193834</v>
+        <v>-308.0157081757382</v>
       </c>
       <c r="C64">
-        <v>55.9185883348591</v>
+        <v>55.59735188711682</v>
       </c>
       <c r="D64">
-        <v>259.7154387362941</v>
+        <v>271.1873668891376</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.002370370370370373</v>
       </c>
       <c r="B65">
-        <v>-286.5208273404149</v>
+        <v>-290.6053783808227</v>
       </c>
       <c r="C65">
-        <v>101.0294545558168</v>
+        <v>100.7802566021755</v>
       </c>
       <c r="D65">
-        <v>224.9018496097121</v>
+        <v>223.4266123046035</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.00240740740740741</v>
       </c>
       <c r="B66">
-        <v>-294.2527970172732</v>
+        <v>-306.6887507777021</v>
       </c>
       <c r="C66">
-        <v>127.4785304560755</v>
+        <v>132.6932334906516</v>
       </c>
       <c r="D66">
-        <v>186.9161323001784</v>
+        <v>191.3019726081043</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.002444444444444447</v>
       </c>
       <c r="B67">
-        <v>-301.4340306856738</v>
+        <v>-310.6881838162545</v>
       </c>
       <c r="C67">
-        <v>137.6582798438583</v>
+        <v>141.3512058234079</v>
       </c>
       <c r="D67">
-        <v>164.5597912864715</v>
+        <v>170.9397366216986</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.002481481481481484</v>
       </c>
       <c r="B68">
-        <v>-310.7123527189001</v>
+        <v>-313.8975703903463</v>
       </c>
       <c r="C68">
-        <v>149.2623579446989</v>
+        <v>150.3212672387661</v>
       </c>
       <c r="D68">
-        <v>156.7149655869478</v>
+        <v>160.190359798088</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.002518518518518521</v>
       </c>
       <c r="B69">
-        <v>-311.3196223911128</v>
+        <v>-315.8070876197697</v>
       </c>
       <c r="C69">
-        <v>156.6728933818938</v>
+        <v>160.2088367256615</v>
       </c>
       <c r="D69">
-        <v>149.628368225768</v>
+        <v>150.6273286643839</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.002555555555555559</v>
       </c>
       <c r="B70">
-        <v>-302.2401207410541</v>
+        <v>-309.6805429951859</v>
       </c>
       <c r="C70">
-        <v>164.368593050274</v>
+        <v>169.5067582231799</v>
       </c>
       <c r="D70">
-        <v>137.6965546393835</v>
+        <v>140.1079512570264</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.002592592592592596</v>
       </c>
       <c r="B71">
-        <v>-295.3430851321876</v>
+        <v>-309.2402869019003</v>
       </c>
       <c r="C71">
-        <v>186.7731253270592</v>
+        <v>192.0003070897762</v>
       </c>
       <c r="D71">
-        <v>127.6827332765437</v>
+        <v>134.1505521104669</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.002629629629629633</v>
       </c>
       <c r="B72">
-        <v>-287.4226861791914</v>
+        <v>-290.3206407229272</v>
       </c>
       <c r="C72">
-        <v>224.7940712900492</v>
+        <v>226.1081529767668</v>
       </c>
       <c r="D72">
-        <v>101.3890678009498</v>
+        <v>101.1182501508927</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.00266666666666667</v>
       </c>
       <c r="B73">
-        <v>-297.1532127441445</v>
+        <v>-302.3443439947256</v>
       </c>
       <c r="C73">
-        <v>259.3705934710416</v>
+        <v>266.3583005535477</v>
       </c>
       <c r="D73">
-        <v>56.69905571034728</v>
+        <v>55.58782411406692</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.002703703703703708</v>
       </c>
       <c r="B74">
-        <v>-308.0657931512194</v>
+        <v>-320.7417459708619</v>
       </c>
       <c r="C74">
-        <v>282.6960830843577</v>
+        <v>293.8316879283101</v>
       </c>
       <c r="D74">
-        <v>19.03950889171255</v>
+        <v>18.51641825521916</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.002740740740740745</v>
       </c>
       <c r="B75">
-        <v>-310.2273544752027</v>
+        <v>-318.492400883357</v>
       </c>
       <c r="C75">
-        <v>295.5774803247281</v>
+        <v>298.8073921350834</v>
       </c>
       <c r="D75">
-        <v>3.400581033485367</v>
+        <v>4.580174667194736</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.002777777777777782</v>
       </c>
       <c r="B76">
-        <v>-310.0084824433446</v>
+        <v>-314.7422507667505</v>
       </c>
       <c r="C76">
-        <v>310.5766028965456</v>
+        <v>314.4525185966526</v>
       </c>
       <c r="D76">
-        <v>-0.1130623442476553</v>
+        <v>-0.09504646861870081</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.002814814814814819</v>
       </c>
       <c r="B77">
-        <v>-295.5955208958525</v>
+        <v>-296.8724610328553</v>
       </c>
       <c r="C77">
-        <v>310.8229114675908</v>
+        <v>316.73479356848</v>
       </c>
       <c r="D77">
-        <v>-3.395121407274493</v>
+        <v>-4.222960527454356</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.002851851851851857</v>
       </c>
       <c r="B78">
-        <v>-281.8284883701554</v>
+        <v>-289.0524720354802</v>
       </c>
       <c r="C78">
-        <v>307.3924367904457</v>
+        <v>319.4796279647014</v>
       </c>
       <c r="D78">
-        <v>-18.64462651409304</v>
+        <v>-18.06718458034769</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.002888888888888894</v>
       </c>
       <c r="B79">
-        <v>-259.3198989980746</v>
+        <v>-272.1517945569668</v>
       </c>
       <c r="C79">
-        <v>296.1094192977561</v>
+        <v>307.5139158355258</v>
       </c>
       <c r="D79">
-        <v>-55.80593768668268</v>
+        <v>-55.56956218709754</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.002925925925925931</v>
       </c>
       <c r="B80">
-        <v>-224.8020740213652</v>
+        <v>-223.8114467520398</v>
       </c>
       <c r="C80">
-        <v>286.2932374852193</v>
+        <v>289.04213269296</v>
       </c>
       <c r="D80">
-        <v>-100.8901413814543</v>
+        <v>-100.9154684772575</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.002962962962962968</v>
       </c>
       <c r="B81">
-        <v>-187.0388495405164</v>
+        <v>-190.2550751671951</v>
       </c>
       <c r="C81">
-        <v>294.0053315528045</v>
+        <v>305.4747343496322</v>
       </c>
       <c r="D81">
-        <v>-127.3525249472707</v>
+        <v>-132.5415975921989</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.003000000000000006</v>
       </c>
       <c r="B82">
-        <v>-164.5456606833014</v>
+        <v>-170.0515720422376</v>
       </c>
       <c r="C82">
-        <v>301.6295749927592</v>
+        <v>310.9561941873212</v>
       </c>
       <c r="D82">
-        <v>-137.7512210998179</v>
+        <v>-141.4938487148933</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.003037037037037043</v>
       </c>
       <c r="B83">
-        <v>-156.6218098561443</v>
+        <v>-160.2662838494002</v>
       </c>
       <c r="C83">
-        <v>310.9346553270483</v>
+        <v>313.8127637346682</v>
       </c>
       <c r="D83">
-        <v>-149.3494482731308</v>
+        <v>-150.0365162902819</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.00307407407407408</v>
       </c>
       <c r="B84">
-        <v>-149.7372822169207</v>
+        <v>-151.3267249097072</v>
       </c>
       <c r="C84">
-        <v>311.8125212192659</v>
+        <v>315.1889367355409</v>
       </c>
       <c r="D84">
-        <v>-156.9744411036995</v>
+        <v>-159.9941530434763</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.003111111111111117</v>
       </c>
       <c r="B85">
-        <v>-137.6705753317274</v>
+        <v>-140.3162504470747</v>
       </c>
       <c r="C85">
-        <v>301.6985265772212</v>
+        <v>309.1465451690177</v>
       </c>
       <c r="D85">
-        <v>-164.2554225384881</v>
+        <v>-169.4747086689694</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.003148148148148155</v>
       </c>
       <c r="B86">
-        <v>-127.6533218663577</v>
+        <v>-134.2811978865231</v>
       </c>
       <c r="C86">
-        <v>294.7044078074196</v>
+        <v>310.4993821766981</v>
       </c>
       <c r="D86">
-        <v>-186.6548364152853</v>
+        <v>-192.8859777354365</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.003185185185185192</v>
       </c>
       <c r="B87">
-        <v>-101.4615574914275</v>
+        <v>-100.3373643109972</v>
       </c>
       <c r="C87">
-        <v>286.7459700517351</v>
+        <v>291.351342593104</v>
       </c>
       <c r="D87">
-        <v>-224.7612537168662</v>
+        <v>-226.9619735503249</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.003222222222222229</v>
       </c>
       <c r="B88">
-        <v>-56.95904980792194</v>
+        <v>-55.23275902480349</v>
       </c>
       <c r="C88">
-        <v>296.0431065689032</v>
+        <v>302.8067592827535</v>
       </c>
       <c r="D88">
-        <v>-259.3893278887814</v>
+        <v>-266.7666073153987</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.003259259259259266</v>
       </c>
       <c r="B89">
-        <v>-19.31059112088285</v>
+        <v>-18.47237470677894</v>
       </c>
       <c r="C89">
-        <v>307.6886997817635</v>
+        <v>320.6055231935929</v>
       </c>
       <c r="D89">
-        <v>-283.0152801929812</v>
+        <v>-293.6311785002591</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.003296296296296304</v>
       </c>
       <c r="B90">
-        <v>-3.60062204251585</v>
+        <v>-4.64595546949248</v>
       </c>
       <c r="C90">
-        <v>310.7170553001789</v>
+        <v>316.9276444720115</v>
       </c>
       <c r="D90">
-        <v>-296.3069200916332</v>
+        <v>-297.1439555807051</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/PhaseVoltage4500.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage4500.xlsx
@@ -408,13 +408,13 @@
         <v>3.703703703703704e-05</v>
       </c>
       <c r="B2">
-        <v>4.622019099350256</v>
+        <v>3.483708728246951</v>
       </c>
       <c r="C2">
-        <v>299.9974410705871</v>
+        <v>303.1570383042171</v>
       </c>
       <c r="D2">
-        <v>-319.1150267196804</v>
+        <v>-319.3997404193134</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>7.407407407407407e-05</v>
       </c>
       <c r="B3">
-        <v>18.86582216597037</v>
+        <v>19.34139273327126</v>
       </c>
       <c r="C3">
-        <v>289.8304507385732</v>
+        <v>289.7120904479803</v>
       </c>
       <c r="D3">
-        <v>-319.2733267039847</v>
+        <v>-316.0432306283636</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0001111111111111111</v>
       </c>
       <c r="B4">
-        <v>55.81711194332942</v>
+        <v>57.55366088528412</v>
       </c>
       <c r="C4">
-        <v>271.3823190653449</v>
+        <v>266.0991901848035</v>
       </c>
       <c r="D4">
-        <v>-306.3075402778096</v>
+        <v>-303.4157106293336</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001481481481481481</v>
       </c>
       <c r="B5">
-        <v>101.7243658862011</v>
+        <v>103.381050876394</v>
       </c>
       <c r="C5">
-        <v>223.2059044541528</v>
+        <v>230.1883982847808</v>
       </c>
       <c r="D5">
-        <v>-288.3157970652488</v>
+        <v>-292.5141722552627</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0001851851851851852</v>
       </c>
       <c r="B6">
-        <v>132.8887413482673</v>
+        <v>130.5456209646192</v>
       </c>
       <c r="C6">
-        <v>190.4629912848416</v>
+        <v>191.6892220317877</v>
       </c>
       <c r="D6">
-        <v>-304.8704180325044</v>
+        <v>-301.016067269646</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0002222222222222222</v>
       </c>
       <c r="B7">
-        <v>141.1544146297803</v>
+        <v>140.9383804418853</v>
       </c>
       <c r="C7">
-        <v>170.1958014474172</v>
+        <v>168.2788267673063</v>
       </c>
       <c r="D7">
-        <v>-310.8239032426286</v>
+        <v>-307.9752733267054</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0002592592592592593</v>
       </c>
       <c r="B8">
-        <v>149.41288889444</v>
+        <v>153.3635124221523</v>
       </c>
       <c r="C8">
-        <v>160.2751347145079</v>
+        <v>160.9351065447568</v>
       </c>
       <c r="D8">
-        <v>-313.8752738507476</v>
+        <v>-319.3820857976388</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0002962962962962963</v>
       </c>
       <c r="B9">
-        <v>159.3012838869163</v>
+        <v>160.6681789812574</v>
       </c>
       <c r="C9">
-        <v>150.9630829297524</v>
+        <v>153.5228611841472</v>
       </c>
       <c r="D9">
-        <v>-314.4884414416355</v>
+        <v>-319.7652672516874</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B10">
-        <v>169.5046922853104</v>
+        <v>168.4181909294481</v>
       </c>
       <c r="C10">
-        <v>140.0223351481582</v>
+        <v>141.1965132023283</v>
       </c>
       <c r="D10">
-        <v>-308.5399600253855</v>
+        <v>-309.4411759848085</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0003703703703703704</v>
       </c>
       <c r="B11">
-        <v>192.9310754204641</v>
+        <v>191.5673853972527</v>
       </c>
       <c r="C11">
-        <v>133.7426668841112</v>
+        <v>131.0316499331351</v>
       </c>
       <c r="D11">
-        <v>-309.5720861231059</v>
+        <v>-302.458027542909</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0004074074074074074</v>
       </c>
       <c r="B12">
-        <v>226.7931185099086</v>
+        <v>230.3450528563187</v>
       </c>
       <c r="C12">
-        <v>99.90958303462646</v>
+        <v>103.658256842044</v>
       </c>
       <c r="D12">
-        <v>-291.7988903530753</v>
+        <v>-293.5731896799111</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0004444444444444444</v>
       </c>
       <c r="B13">
-        <v>265.5757465855864</v>
+        <v>265.1530449364883</v>
       </c>
       <c r="C13">
-        <v>55.29840100608467</v>
+        <v>58.19704620987721</v>
       </c>
       <c r="D13">
-        <v>-302.1565429068125</v>
+        <v>-303.3380145496859</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0004814814814814814</v>
       </c>
       <c r="B14">
-        <v>293.1581797504199</v>
+        <v>289.379986681707</v>
       </c>
       <c r="C14">
-        <v>19.01426252579434</v>
+        <v>19.75915535373213</v>
       </c>
       <c r="D14">
-        <v>-318.9208509718328</v>
+        <v>-315.2191915353397</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0005185185185185185</v>
       </c>
       <c r="B15">
-        <v>298.3700561519232</v>
+        <v>302.8065667806889</v>
       </c>
       <c r="C15">
-        <v>5.041018536870515</v>
+        <v>3.661585070052834</v>
       </c>
       <c r="D15">
-        <v>-316.8055416137312</v>
+        <v>-318.0963969388512</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0005555555555555556</v>
       </c>
       <c r="B16">
-        <v>314.7222727571201</v>
+        <v>319.2033012495678</v>
       </c>
       <c r="C16">
-        <v>0.08732207382115831</v>
+        <v>-0.0572051281163416</v>
       </c>
       <c r="D16">
-        <v>-315.7960453462386</v>
+        <v>-318.9519600860016</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0005925925925925926</v>
       </c>
       <c r="B17">
-        <v>317.4029193456684</v>
+        <v>318.4566845428134</v>
       </c>
       <c r="C17">
-        <v>-4.430569989626668</v>
+        <v>-3.457480843158806</v>
       </c>
       <c r="D17">
-        <v>-300.0533354713277</v>
+        <v>-303.0092525221651</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0006296296296296296</v>
       </c>
       <c r="B18">
-        <v>319.7578425608775</v>
+        <v>315.3299812163381</v>
       </c>
       <c r="C18">
-        <v>-18.38929071376096</v>
+        <v>-19.1213626315933</v>
       </c>
       <c r="D18">
-        <v>-290.4994888528051</v>
+        <v>-289.6782281830514</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B19">
-        <v>308.0551879492254</v>
+        <v>304.2511218091535</v>
       </c>
       <c r="C19">
-        <v>-55.52819528070596</v>
+        <v>-57.28917308836532</v>
       </c>
       <c r="D19">
-        <v>-271.2592855506581</v>
+        <v>-266.6586898597301</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0007037037037037037</v>
       </c>
       <c r="B20">
-        <v>290.6005148533293</v>
+        <v>293.7161402728674</v>
       </c>
       <c r="C20">
-        <v>-100.7233003094346</v>
+        <v>-103.4762198878941</v>
       </c>
       <c r="D20">
-        <v>-223.4809786128406</v>
+        <v>-230.3965547855282</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0007407407407407407</v>
       </c>
       <c r="B21">
-        <v>306.6632933870093</v>
+        <v>301.8047183160237</v>
       </c>
       <c r="C21">
-        <v>-132.6620511790488</v>
+        <v>-130.7120393979486</v>
       </c>
       <c r="D21">
-        <v>-191.3385497725896</v>
+        <v>-191.7051605299309</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0007777777777777777</v>
       </c>
       <c r="B22">
-        <v>310.6942321688018</v>
+        <v>308.5919512743163</v>
       </c>
       <c r="C22">
-        <v>-141.347350644608</v>
+        <v>-140.8493018930325</v>
       </c>
       <c r="D22">
-        <v>-170.9619501238182</v>
+        <v>-168.4952094348814</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0008148148148148148</v>
       </c>
       <c r="B23">
-        <v>313.8844150425156</v>
+        <v>319.46265228032</v>
       </c>
       <c r="C23">
-        <v>-150.3033934775975</v>
+        <v>-153.4233689786486</v>
       </c>
       <c r="D23">
-        <v>-160.1989926576134</v>
+        <v>-161.0718402935808</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0008518518518518518</v>
       </c>
       <c r="B24">
-        <v>315.8167658186102</v>
+        <v>319.373374448675</v>
       </c>
       <c r="C24">
-        <v>-160.1996239511552</v>
+        <v>-160.7455213186881</v>
       </c>
       <c r="D24">
-        <v>-150.6469277067929</v>
+        <v>-153.333998105283</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.0008888888888888888</v>
       </c>
       <c r="B25">
-        <v>309.6870535062239</v>
+        <v>309.8013452338859</v>
       </c>
       <c r="C25">
-        <v>-169.4856997814901</v>
+        <v>-168.6523352816732</v>
       </c>
       <c r="D25">
-        <v>-140.1207261755868</v>
+        <v>-141.0095918918821</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.0009259259259259259</v>
       </c>
       <c r="B26">
-        <v>309.2497980260432</v>
+        <v>303.2102375857267</v>
       </c>
       <c r="C26">
-        <v>-191.9562941232274</v>
+        <v>-191.6918446038485</v>
       </c>
       <c r="D26">
-        <v>-134.1696231833459</v>
+        <v>-131.0818464247896</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.0009629629629629629</v>
       </c>
       <c r="B27">
-        <v>290.34098892785</v>
+        <v>294.6918473178997</v>
       </c>
       <c r="C27">
-        <v>-226.059154514235</v>
+        <v>-230.418318745463</v>
       </c>
       <c r="D27">
-        <v>-101.1794971086376</v>
+        <v>-103.8043436727277</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001</v>
       </c>
       <c r="B28">
-        <v>302.3053396546366</v>
+        <v>304.686186725938</v>
       </c>
       <c r="C28">
-        <v>-266.299073722595</v>
+        <v>-265.7245590873309</v>
       </c>
       <c r="D28">
-        <v>-55.656149139909</v>
+        <v>-58.0903438913645</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001037037037037037</v>
       </c>
       <c r="B29">
-        <v>320.7338703965926</v>
+        <v>315.7667279125757</v>
       </c>
       <c r="C29">
-        <v>-293.8177552880536</v>
+        <v>-289.8372392006579</v>
       </c>
       <c r="D29">
-        <v>-18.55058178144589</v>
+        <v>-19.5214968868928</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001074074074074074</v>
       </c>
       <c r="B30">
-        <v>318.4977831314851</v>
+        <v>318.1293581039785</v>
       </c>
       <c r="C30">
-        <v>-298.790550636741</v>
+        <v>-303.0921321935453</v>
       </c>
       <c r="D30">
-        <v>-4.591921779271563</v>
+        <v>-3.519971976632327</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.001111111111111111</v>
       </c>
       <c r="B31">
-        <v>314.7580789837201</v>
+        <v>318.6999757057392</v>
       </c>
       <c r="C31">
-        <v>-314.4355407729108</v>
+        <v>-319.0166032715804</v>
       </c>
       <c r="D31">
-        <v>0.09215424063534206</v>
+        <v>0.1202511786783933</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001148148148148148</v>
       </c>
       <c r="B32">
-        <v>296.8953689954268</v>
+        <v>302.5263627703978</v>
       </c>
       <c r="C32">
-        <v>-316.7345784713761</v>
+        <v>-318.3465113374032</v>
       </c>
       <c r="D32">
-        <v>4.21233947959128</v>
+        <v>3.522509468616361</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001185185185185185</v>
       </c>
       <c r="B33">
-        <v>289.05017009011</v>
+        <v>289.048090859788</v>
       </c>
       <c r="C33">
-        <v>-319.4764892306141</v>
+        <v>-315.3613815325712</v>
       </c>
       <c r="D33">
-        <v>18.03344263708325</v>
+        <v>19.21471292131778</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001222222222222222</v>
       </c>
       <c r="B34">
-        <v>272.2188479235035</v>
+        <v>266.1824045359939</v>
       </c>
       <c r="C34">
-        <v>-307.5515240600112</v>
+        <v>-304.1041063116764</v>
       </c>
       <c r="D34">
-        <v>55.49929898836328</v>
+        <v>57.18764060481774</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.001259259259259259</v>
       </c>
       <c r="B35">
-        <v>223.8688276735441</v>
+        <v>230.3529845509229</v>
       </c>
       <c r="C35">
-        <v>-289.0390477533849</v>
+        <v>-293.4462545391351</v>
       </c>
       <c r="D35">
-        <v>100.8580100624046</v>
+        <v>103.2739023791773</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001296296296296296</v>
       </c>
       <c r="B36">
-        <v>190.2923114867748</v>
+        <v>191.8076413327016</v>
       </c>
       <c r="C36">
-        <v>-305.4463776437391</v>
+        <v>-301.4485318387212</v>
       </c>
       <c r="D36">
-        <v>132.5098256218018</v>
+        <v>130.5853976470875</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B37">
-        <v>170.0742459091847</v>
+        <v>168.4412864005462</v>
       </c>
       <c r="C37">
-        <v>-310.9636129604782</v>
+        <v>-308.7210219250036</v>
       </c>
       <c r="D37">
-        <v>141.49138513597</v>
+        <v>140.9615237437883</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.00137037037037037</v>
       </c>
       <c r="B38">
-        <v>160.2723206092859</v>
+        <v>160.934140853824</v>
       </c>
       <c r="C38">
-        <v>-313.799155284044</v>
+        <v>-319.5891407115894</v>
       </c>
       <c r="D38">
-        <v>150.0180441826896</v>
+        <v>153.4740872121903</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001407407407407407</v>
       </c>
       <c r="B39">
-        <v>151.3463681139785</v>
+        <v>153.5596696107176</v>
       </c>
       <c r="C39">
-        <v>-315.1996671373936</v>
+        <v>-319.8315872107798</v>
       </c>
       <c r="D39">
-        <v>159.9851989582349</v>
+        <v>160.9442467277885</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001444444444444444</v>
       </c>
       <c r="B40">
-        <v>140.3296122516912</v>
+        <v>141.0297550852108</v>
       </c>
       <c r="C40">
-        <v>-309.1511024033363</v>
+        <v>-309.0821694637662</v>
       </c>
       <c r="D40">
-        <v>169.4525386039574</v>
+        <v>168.4267795480663</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001481481481481481</v>
       </c>
       <c r="B41">
-        <v>134.3013009203626</v>
+        <v>131.0349646248674</v>
       </c>
       <c r="C41">
-        <v>-310.5085038094394</v>
+        <v>-302.5411150003246</v>
       </c>
       <c r="D41">
-        <v>192.8421223250727</v>
+        <v>191.5716406571153</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001518518518518518</v>
       </c>
       <c r="B42">
-        <v>100.3987009155133</v>
+        <v>103.7979266820751</v>
       </c>
       <c r="C42">
-        <v>-291.3693210459092</v>
+        <v>-294.0355525045524</v>
       </c>
       <c r="D42">
-        <v>226.911005863981</v>
+        <v>230.4986399168958</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.001555555555555555</v>
       </c>
       <c r="B43">
-        <v>55.3004937761132</v>
+        <v>58.37368316931387</v>
       </c>
       <c r="C43">
-        <v>-302.7699365611766</v>
+        <v>-303.6042456723939</v>
       </c>
       <c r="D43">
-        <v>266.7089514912825</v>
+        <v>265.7660935326733</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001592592592592592</v>
       </c>
       <c r="B44">
-        <v>18.50679104038883</v>
+        <v>19.83305498812711</v>
       </c>
       <c r="C44">
-        <v>-320.5997125512047</v>
+        <v>-315.2785959914811</v>
       </c>
       <c r="D44">
-        <v>293.6205451812219</v>
+        <v>290.0504104983648</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.00162962962962963</v>
       </c>
       <c r="B45">
-        <v>4.656546605538159</v>
+        <v>3.685125729855562</v>
       </c>
       <c r="C45">
-        <v>-316.930938198257</v>
+        <v>-318.4286143532707</v>
       </c>
       <c r="D45">
-        <v>297.1231965700993</v>
+        <v>303.7227812236459</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B46">
-        <v>0.3048980598940182</v>
+        <v>-0.01678935916418767</v>
       </c>
       <c r="C46">
-        <v>-316.4980321501252</v>
+        <v>-319.5276920600183</v>
       </c>
       <c r="D46">
-        <v>316.581483629043</v>
+        <v>320.1472695204394</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001703703703703704</v>
       </c>
       <c r="B47">
-        <v>-4.634517314259512</v>
+        <v>-3.495440817367149</v>
       </c>
       <c r="C47">
-        <v>-299.9775426274135</v>
+        <v>-303.1300843390528</v>
       </c>
       <c r="D47">
-        <v>319.1151806401375</v>
+        <v>319.3945904844161</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001740740740740741</v>
       </c>
       <c r="B48">
-        <v>-18.90049951151794</v>
+        <v>-19.3774450436477</v>
       </c>
       <c r="C48">
-        <v>-289.8292883463236</v>
+        <v>-289.6947667809238</v>
       </c>
       <c r="D48">
-        <v>319.2739979198133</v>
+        <v>316.0352763910601</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001777777777777778</v>
       </c>
       <c r="B49">
-        <v>-55.88655742393735</v>
+        <v>-57.62537415806797</v>
       </c>
       <c r="C49">
-        <v>-271.3119942616214</v>
+        <v>-266.0505847916251</v>
       </c>
       <c r="D49">
-        <v>306.2674788455947</v>
+        <v>303.3910014383096</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.001814814814814815</v>
       </c>
       <c r="B50">
-        <v>-101.7812584734174</v>
+        <v>-103.4335077069889</v>
       </c>
       <c r="C50">
-        <v>-223.1511766848364</v>
+        <v>-230.1327681314094</v>
       </c>
       <c r="D50">
-        <v>288.3210052133319</v>
+        <v>292.5142831346977</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.001851851851851852</v>
       </c>
       <c r="B51">
-        <v>-132.9183695097453</v>
+        <v>-130.5704921840981</v>
       </c>
       <c r="C51">
-        <v>-190.4236948887638</v>
+        <v>-191.6407857340426</v>
       </c>
       <c r="D51">
-        <v>304.8959897062023</v>
+        <v>301.0306154135698</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.001888888888888889</v>
       </c>
       <c r="B52">
-        <v>-141.1562958259748</v>
+        <v>-140.9527208738735</v>
       </c>
       <c r="C52">
-        <v>-170.1743008043556</v>
+        <v>-168.260185260871</v>
       </c>
       <c r="D52">
-        <v>310.8189528578848</v>
+        <v>307.9874354675908</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.001925925925925926</v>
       </c>
       <c r="B53">
-        <v>-149.4321688817411</v>
+        <v>-153.380526353363</v>
       </c>
       <c r="C53">
-        <v>-160.2688137676632</v>
+        <v>-160.9294149816591</v>
       </c>
       <c r="D53">
-        <v>313.8887564677922</v>
+        <v>319.3974053436099</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.001962962962962963</v>
       </c>
       <c r="B54">
-        <v>-159.3109608611363</v>
+        <v>-160.673642206479</v>
       </c>
       <c r="C54">
-        <v>-150.9434662543346</v>
+        <v>-153.5046727890365</v>
       </c>
       <c r="D54">
-        <v>314.4782676451029</v>
+        <v>319.7507856067747</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.002</v>
       </c>
       <c r="B55">
-        <v>-169.5275514336652</v>
+        <v>-168.4393722327632</v>
       </c>
       <c r="C55">
-        <v>-140.0087339090895</v>
+        <v>-141.1837513528424</v>
       </c>
       <c r="D55">
-        <v>308.53404924924</v>
+        <v>309.4312640273527</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.002037037037037037</v>
       </c>
       <c r="B56">
-        <v>-192.9745687093995</v>
+        <v>-191.612769642243</v>
       </c>
       <c r="C56">
-        <v>-133.7216478308764</v>
+        <v>-131.0054580969321</v>
       </c>
       <c r="D56">
-        <v>309.5635374689402</v>
+        <v>302.4414674948089</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.002074074074074075</v>
       </c>
       <c r="B57">
-        <v>-226.8421959594523</v>
+        <v>-230.4025207092582</v>
       </c>
       <c r="C57">
-        <v>-99.84899091307503</v>
+        <v>-103.6065024961433</v>
       </c>
       <c r="D57">
-        <v>291.7813420887995</v>
+        <v>293.5728458074422</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.002111111111111112</v>
       </c>
       <c r="B58">
-        <v>-265.633593174636</v>
+        <v>-265.199706845899</v>
       </c>
       <c r="C58">
-        <v>-55.2322206322723</v>
+        <v>-58.12581140570372</v>
       </c>
       <c r="D58">
-        <v>302.1909655014612</v>
+        <v>303.3615010302057</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.002148148148148149</v>
       </c>
       <c r="B59">
-        <v>-293.1722902199643</v>
+        <v>-289.398738215475</v>
       </c>
       <c r="C59">
-        <v>-18.98011843651778</v>
+        <v>-19.72231734142404</v>
       </c>
       <c r="D59">
-        <v>318.9282924163265</v>
+        <v>315.226523570317</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.002185185185185186</v>
       </c>
       <c r="B60">
-        <v>-298.388339810397</v>
+        <v>-302.8346823450996</v>
       </c>
       <c r="C60">
-        <v>-5.029006053534971</v>
+        <v>-3.649344374736103</v>
       </c>
       <c r="D60">
-        <v>316.8028759116384</v>
+        <v>318.1021319836709</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.002222222222222224</v>
       </c>
       <c r="B61">
-        <v>-314.7388423897769</v>
+        <v>-319.2142051866582</v>
       </c>
       <c r="C61">
-        <v>-0.08420558333985251</v>
+        <v>0.0583053320143273</v>
       </c>
       <c r="D61">
-        <v>315.7821162972828</v>
+        <v>318.941611949403</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.002259259259259261</v>
       </c>
       <c r="B62">
-        <v>-317.4030566807708</v>
+        <v>-318.4491221873875</v>
       </c>
       <c r="C62">
-        <v>4.441680335390691</v>
+        <v>3.468630696760455</v>
       </c>
       <c r="D62">
-        <v>300.0322250116651</v>
+        <v>302.9807074421198</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.002296296296296298</v>
       </c>
       <c r="B63">
-        <v>-319.7632721941679</v>
+        <v>-315.3243995331877</v>
       </c>
       <c r="C63">
-        <v>18.42426994825987</v>
+        <v>19.15780963069269</v>
       </c>
       <c r="D63">
-        <v>290.5001920365086</v>
+        <v>289.6620808886907</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.002333333333333335</v>
       </c>
       <c r="B64">
-        <v>-308.0157081757382</v>
+        <v>-304.2282109045015</v>
       </c>
       <c r="C64">
-        <v>55.59735188711682</v>
+        <v>57.36116380106148</v>
       </c>
       <c r="D64">
-        <v>271.1873668891376</v>
+        <v>266.6103152098124</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.002370370370370373</v>
       </c>
       <c r="B65">
-        <v>-290.6053783808227</v>
+        <v>-293.7151416082596</v>
       </c>
       <c r="C65">
-        <v>100.7802566021755</v>
+        <v>103.5288835168269</v>
       </c>
       <c r="D65">
-        <v>223.4266123046035</v>
+        <v>230.3395556140404</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.00240740740740741</v>
       </c>
       <c r="B66">
-        <v>-306.6887507777021</v>
+        <v>-301.8222432047502</v>
       </c>
       <c r="C66">
-        <v>132.6932334906516</v>
+        <v>130.7383605556052</v>
       </c>
       <c r="D66">
-        <v>191.3019726081043</v>
+        <v>191.659714764703</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.002444444444444447</v>
       </c>
       <c r="B67">
-        <v>-310.6881838162545</v>
+        <v>-308.5993390980524</v>
       </c>
       <c r="C67">
-        <v>141.3512058234079</v>
+        <v>140.8607326695928</v>
       </c>
       <c r="D67">
-        <v>170.9397366216986</v>
+        <v>168.4729071897464</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.002481481481481484</v>
       </c>
       <c r="B68">
-        <v>-313.8975703903463</v>
+        <v>-319.4776911367834</v>
       </c>
       <c r="C68">
-        <v>150.3212672387661</v>
+        <v>153.4413515165948</v>
       </c>
       <c r="D68">
-        <v>160.190359798088</v>
+        <v>161.0669705987122</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.002518518518518521</v>
       </c>
       <c r="B69">
-        <v>-315.8070876197697</v>
+        <v>-319.3592544250535</v>
       </c>
       <c r="C69">
-        <v>160.2088367256615</v>
+        <v>160.7512007931876</v>
       </c>
       <c r="D69">
-        <v>150.6273286643839</v>
+        <v>153.3152897161614</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.002555555555555559</v>
       </c>
       <c r="B70">
-        <v>-309.6805429951859</v>
+        <v>-309.7933379602817</v>
       </c>
       <c r="C70">
-        <v>169.5067582231799</v>
+        <v>168.6741668248783</v>
       </c>
       <c r="D70">
-        <v>140.1079512570264</v>
+        <v>140.9977462624148</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.002592592592592596</v>
       </c>
       <c r="B71">
-        <v>-309.2402869019003</v>
+        <v>-303.1951650340251</v>
       </c>
       <c r="C71">
-        <v>192.0003070897762</v>
+        <v>191.7380960432893</v>
       </c>
       <c r="D71">
-        <v>134.1505521104669</v>
+        <v>131.0567921863001</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.002629629629629633</v>
       </c>
       <c r="B72">
-        <v>-290.3206407229272</v>
+        <v>-294.6911400243655</v>
       </c>
       <c r="C72">
-        <v>226.1081529767668</v>
+        <v>230.4751244837151</v>
       </c>
       <c r="D72">
-        <v>101.1182501508927</v>
+        <v>103.7518872600622</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.00266666666666667</v>
       </c>
       <c r="B73">
-        <v>-302.3443439947256</v>
+        <v>-304.7095931794812</v>
       </c>
       <c r="C73">
-        <v>266.3583005535477</v>
+        <v>265.7719934985672</v>
       </c>
       <c r="D73">
-        <v>55.58782411406692</v>
+        <v>58.01838777310443</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.002703703703703708</v>
       </c>
       <c r="B74">
-        <v>-320.7417459708619</v>
+        <v>-315.7729355135293</v>
       </c>
       <c r="C74">
-        <v>293.8316879283101</v>
+        <v>289.855904221998</v>
       </c>
       <c r="D74">
-        <v>18.51641825521916</v>
+        <v>19.48508382628292</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.002740740740740745</v>
       </c>
       <c r="B75">
-        <v>-318.492400883357</v>
+        <v>-318.1332437795232</v>
       </c>
       <c r="C75">
-        <v>298.8073921350834</v>
+        <v>303.1179575125174</v>
       </c>
       <c r="D75">
-        <v>4.580174667194736</v>
+        <v>3.507666710884094</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.002777777777777782</v>
       </c>
       <c r="B76">
-        <v>-314.7422507667505</v>
+        <v>-318.6902844227216</v>
       </c>
       <c r="C76">
-        <v>314.4525185966526</v>
+        <v>319.0284617613087</v>
       </c>
       <c r="D76">
-        <v>-0.09504646861870081</v>
+        <v>-0.1215782642573215</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.002814814814814819</v>
       </c>
       <c r="B77">
-        <v>-296.8724610328553</v>
+        <v>-302.4993102275932</v>
       </c>
       <c r="C77">
-        <v>316.73479356848</v>
+        <v>318.3411885964863</v>
       </c>
       <c r="D77">
-        <v>-4.222960527454356</v>
+        <v>-3.534404442193731</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.002851851851851857</v>
       </c>
       <c r="B78">
-        <v>-289.0524720354802</v>
+        <v>-289.0311741390078</v>
       </c>
       <c r="C78">
-        <v>319.4796279647014</v>
+        <v>315.3549584366629</v>
       </c>
       <c r="D78">
-        <v>-18.06718458034769</v>
+        <v>-19.25054977778264</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.002888888888888894</v>
       </c>
       <c r="B79">
-        <v>-272.1517945569668</v>
+        <v>-266.1335551813089</v>
       </c>
       <c r="C79">
-        <v>307.5139158355258</v>
+        <v>304.0799357330752</v>
       </c>
       <c r="D79">
-        <v>-55.56956218709754</v>
+        <v>-57.25890064074979</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.002925925925925931</v>
       </c>
       <c r="B80">
-        <v>-223.8114467520398</v>
+        <v>-230.2955333175186</v>
       </c>
       <c r="C80">
-        <v>289.04213269296</v>
+        <v>293.443473825016</v>
       </c>
       <c r="D80">
-        <v>-100.9154684772575</v>
+        <v>-103.3257961312834</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.002962962962962968</v>
       </c>
       <c r="B81">
-        <v>-190.2550751671951</v>
+        <v>-191.7615596321337</v>
       </c>
       <c r="C81">
-        <v>305.4747343496322</v>
+        <v>301.4658588077169</v>
       </c>
       <c r="D81">
-        <v>-132.5415975921989</v>
+        <v>-130.6120746257943</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.003000000000000006</v>
       </c>
       <c r="B82">
-        <v>-170.0515720422376</v>
+        <v>-168.420348968944</v>
       </c>
       <c r="C82">
-        <v>310.9561941873212</v>
+        <v>308.731277681782</v>
       </c>
       <c r="D82">
-        <v>-141.4938487148933</v>
+        <v>-140.9744614455052</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.003037037037037043</v>
       </c>
       <c r="B83">
-        <v>-160.2662838494002</v>
+        <v>-160.9299217879073</v>
       </c>
       <c r="C83">
-        <v>313.8127637346682</v>
+        <v>319.6048532809669</v>
       </c>
       <c r="D83">
-        <v>-150.0365162902819</v>
+        <v>-153.4927239239117</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.00307407407407408</v>
       </c>
       <c r="B84">
-        <v>-151.3267249097072</v>
+        <v>-153.5400760866388</v>
       </c>
       <c r="C84">
-        <v>315.1889367355409</v>
+        <v>319.8151808881155</v>
       </c>
       <c r="D84">
-        <v>-159.9941530434763</v>
+        <v>-160.9484126034835</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.003111111111111117</v>
       </c>
       <c r="B85">
-        <v>-140.3162504470747</v>
+        <v>-141.0166772499674</v>
       </c>
       <c r="C85">
-        <v>309.1465451690177</v>
+        <v>309.0718701031795</v>
       </c>
       <c r="D85">
-        <v>-169.4747086689694</v>
+        <v>-168.4468432764756</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.003148148148148155</v>
       </c>
       <c r="B86">
-        <v>-134.2811978865231</v>
+        <v>-131.0105562184583</v>
       </c>
       <c r="C86">
-        <v>310.4993821766981</v>
+        <v>302.5270653553749</v>
       </c>
       <c r="D86">
-        <v>-192.8859777354365</v>
+        <v>-191.6187100482326</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.003185185185185192</v>
       </c>
       <c r="B87">
-        <v>-100.3373643109972</v>
+        <v>-103.7455989769836</v>
       </c>
       <c r="C87">
-        <v>291.351342593104</v>
+        <v>294.0351663919648</v>
       </c>
       <c r="D87">
-        <v>-226.9619735503249</v>
+        <v>-230.5568286742377</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.003222222222222229</v>
       </c>
       <c r="B88">
-        <v>-55.23275902480349</v>
+        <v>-58.30278133203193</v>
       </c>
       <c r="C88">
-        <v>302.8067592827535</v>
+        <v>303.6278435103431</v>
       </c>
       <c r="D88">
-        <v>-266.7666073153987</v>
+        <v>-265.813614882511</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.003259259259259266</v>
       </c>
       <c r="B89">
-        <v>-18.47237470677894</v>
+        <v>-19.79602704369525</v>
       </c>
       <c r="C89">
-        <v>320.6055231935929</v>
+        <v>315.284305781184</v>
       </c>
       <c r="D89">
-        <v>-293.6311785002591</v>
+        <v>-290.0675038054284</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.003296296296296304</v>
       </c>
       <c r="B90">
-        <v>-4.64595546949248</v>
+        <v>-3.673206324288012</v>
       </c>
       <c r="C90">
-        <v>316.9276444720115</v>
+        <v>318.4355598463457</v>
       </c>
       <c r="D90">
-        <v>-297.1439555807051</v>
+        <v>-303.7516733095275</v>
       </c>
     </row>
   </sheetData>
